--- a/Data/Literature_on_C_change.xlsx
+++ b/Data/Literature_on_C_change.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="92">
   <si>
     <t>Source</t>
   </si>
@@ -248,12 +248,69 @@
   </si>
   <si>
     <t>Khan, S.A., R.L. Mulvaney, T.R. Ellsworth, and C.W. Boast. 2007. The myth of nitrogen fertilization for soil carbon sequestration. J. Environ. Qual. 36:1821–1832.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois </t>
+  </si>
+  <si>
+    <t>0 -15</t>
+  </si>
+  <si>
+    <t>30 -46</t>
+  </si>
+  <si>
+    <t>tilled</t>
+  </si>
+  <si>
+    <t>corn-oats/soybean</t>
+  </si>
+  <si>
+    <t>corn-oats-alfalfa</t>
+  </si>
+  <si>
+    <t>std deviation</t>
+  </si>
+  <si>
+    <t>15 - 75</t>
+  </si>
+  <si>
+    <t>0 - 46</t>
+  </si>
+  <si>
+    <t>Bloom, P.R., W.M. Schuh, G.L. Malzer, W.W. Nelson, and S.D. Evans. 1982. Eﬀ ect of N fertilizer and corn residue management on organic matter in Minnesota Mollisols. Agron. J. 74:161–163</t>
+  </si>
+  <si>
+    <t>Buyanovsky, G.A., and G.H. Wagner. 1998. Carbon cycling in cultivated land and its global signiﬁ cance. Glob. Change Biol. 4:131–141</t>
+  </si>
+  <si>
+    <t>Clapp, C.E., R.R. Allmaras, M.F. Layese, D.R. Linden, and R.H. Dowdy. 2000. Soil organic carbon and 13C abundance as related to tillage, crop residue, and nitrogen fertilization under continuous corn management in Minnesota. Soil Tillage Res. 55:127–142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesoing, G.W., and J.W. Doran. 1997. Crop rotation, manure, and agricultural chemical eﬀ ects on dryland crop yield and SOM over 16 years in eastern Nebraska. p. 197–204. In E.A. Paul et al. (ed.) Soil organic matter in temperate agroecosystems: Long-term experiments in North America. CRC Press, Boca Raton, FL. </t>
+  </si>
+  <si>
+    <t>Pikul, J.L., Jr., T.E. Schumacher, and M. Vigil. 2001. Nitrogen use and carbon sequestered by corn in the northern Corn Belt, U.S. Th eScientiﬁ cWorld 1:707–713</t>
+  </si>
+  <si>
+    <t>Robinson, C.A., R.M. Cruse, and M. Ghaﬀ arzadeh. 1996. Cropping system and nitrogen eﬀ ects on Mollisol organic carbon. Soil Sci. Soc. Am. J. 60:264–269</t>
+  </si>
+  <si>
+    <t>Vanotti, M.B., L.G. Bundy, and A.E. Peterson. 1997. Nitrogen fertilizer and legume-cereal rotation eﬀ ects on soil productivity and organic matter dynamics in Wisconsin. p. 105–119. In E.A. Paul et al. (ed.) Soil organic matter in temperate agroecosystems: Long-term experiments in North America. CRC Press, Boca Raton, FL</t>
+  </si>
+  <si>
+    <t>Vitosh, M.L., R.E. Lucas, and G.H. Silva. 1997. Long-term eﬀ ects of fertilizer and manure on corn yield, soil carbon, and other soil chemical properties in Michigan. p. 129–139. In E.A. Paul et al. (ed.) Soil organic matter in temperate agroecosystems: Long-term experiments in North America. CRC Press, Boca Raton, FL</t>
+  </si>
+  <si>
+    <t>Wander, M.M., S.J. Traina, B.R. Stinner, and S.E. Peters. 1994. Organic and conventional management eﬀ ects on biologically active soil organic matter pools. Soil Sci. Soc. Am. J. 58:1130–1139</t>
+  </si>
+  <si>
+    <t>Wilts, A. R., D. C. Reicosky, R. R. Allmaras, and C. E. Clapp. 2004.  Longterm corn residue eﬀ ects: Harvest alternatives, soil carbon turnover, and root-derived carbon.  Soil Sci. Soc. Am. J. 68:1342–1351</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -426,6 +483,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -444,8 +504,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,13 +790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V222"/>
+  <dimension ref="A1:V227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,15 +813,15 @@
     <col min="12" max="12" width="10.42578125" style="14" customWidth="1"/>
     <col min="13" max="14" width="9.5703125" style="16" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="7" customWidth="1"/>
-    <col min="18" max="19" width="9.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="7" customWidth="1"/>
+    <col min="17" max="18" width="9.7109375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="7" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" style="7" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" customWidth="1"/>
     <col min="22" max="22" width="98.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="18" t="s">
         <v>24</v>
       </c>
@@ -777,27 +840,29 @@
       <c r="H1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="25"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="8" t="s">
         <v>38</v>
       </c>
       <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="22" t="s">
+      <c r="Q1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="23"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="T1" s="18" t="s">
         <v>14</v>
       </c>
@@ -830,7 +895,7 @@
       <c r="K2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
@@ -839,25 +904,20 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="S2" s="19"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -894,17 +954,17 @@
       <c r="O3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="S3" s="9">
         <v>-1.1499999999999999</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="S3" s="9">
-        <v>0.3</v>
       </c>
       <c r="T3" s="9">
         <v>0.27</v>
@@ -917,9 +977,6 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -956,17 +1013,17 @@
       <c r="O4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="9">
-        <v>-0.71</v>
-      </c>
-      <c r="Q4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.5</v>
       </c>
       <c r="R4" s="9">
         <v>0.5</v>
       </c>
       <c r="S4" s="9">
-        <v>0.5</v>
+        <v>-0.71</v>
       </c>
       <c r="T4" s="9">
         <v>0.48</v>
@@ -976,9 +1033,6 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1018,17 +1072,17 @@
       <c r="O5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="S5" s="9">
         <v>-0.16</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="9">
-        <v>0.3</v>
       </c>
       <c r="T5" s="9">
         <v>0.28999999999999998</v>
@@ -1038,9 +1092,6 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1080,17 +1131,17 @@
       <c r="O6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="9">
         <v>-0.22</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0.5</v>
       </c>
       <c r="T6" s="9">
         <v>0.46</v>
@@ -1103,9 +1154,6 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1145,17 +1193,17 @@
       <c r="O7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="9">
         <v>-1.54</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0.5</v>
       </c>
       <c r="T7" s="9">
         <v>0.51</v>
@@ -1165,9 +1213,6 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1207,17 +1252,17 @@
       <c r="O8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S8" s="9">
         <v>0.31</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0.5</v>
       </c>
       <c r="T8" s="9">
         <v>0.48</v>
@@ -1227,9 +1272,6 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1269,17 +1311,17 @@
       <c r="O9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="9">
         <v>0.19</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0.5</v>
       </c>
       <c r="T9" s="9">
         <v>0.19</v>
@@ -1289,9 +1331,6 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
       <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
@@ -1333,9 +1372,6 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1375,9 +1411,6 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1417,9 +1450,6 @@
       <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
       <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
@@ -1461,9 +1491,6 @@
       <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1503,9 +1530,6 @@
       <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
       <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
@@ -1545,9 +1569,6 @@
       <c r="T15" s="11"/>
     </row>
     <row r="16" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
       <c r="B16" s="10" t="s">
         <v>54</v>
       </c>
@@ -1583,10 +1604,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
+    <row r="17" spans="2:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>55</v>
       </c>
@@ -1620,10 +1638,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
+    <row r="18" spans="2:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>56</v>
       </c>
@@ -1657,10 +1672,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
+    <row r="19" spans="2:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>57</v>
       </c>
@@ -1696,10 +1708,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
+    <row r="20" spans="2:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>58</v>
       </c>
@@ -1733,10 +1742,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
+    <row r="21" spans="2:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>59</v>
       </c>
@@ -1770,10 +1776,7 @@
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
     </row>
-    <row r="22" spans="1:22" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
+    <row r="22" spans="2:22" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1819,10 +1822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
+    <row r="23" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
@@ -1865,10 +1865,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
+    <row r="24" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1911,10 +1908,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
+    <row r="25" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1957,10 +1951,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
+    <row r="26" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
@@ -2003,10 +1994,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
+    <row r="27" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2049,10 +2037,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
     </row>
-    <row r="28" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
+    <row r="28" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
@@ -2095,10 +2080,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
+    <row r="29" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
@@ -2141,10 +2123,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
+    <row r="30" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,10 +2166,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
     </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
+    <row r="31" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
@@ -2233,10 +2209,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
+    <row r="32" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2279,10 +2252,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
+    <row r="33" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2325,10 +2295,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
+    <row r="34" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
@@ -2371,10 +2338,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
+    <row r="35" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
@@ -2417,10 +2381,7 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
+    <row r="36" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,10 +2424,7 @@
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
+    <row r="37" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>60</v>
       </c>
@@ -2509,10 +2467,7 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
+    <row r="38" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>60</v>
       </c>
@@ -2555,10 +2510,7 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
+    <row r="39" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2601,10 +2553,7 @@
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
     </row>
-    <row r="40" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
+    <row r="40" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>60</v>
       </c>
@@ -2647,10 +2596,7 @@
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
     </row>
-    <row r="41" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
+    <row r="41" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>60</v>
       </c>
@@ -2693,10 +2639,7 @@
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
     </row>
-    <row r="42" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
+    <row r="42" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>60</v>
       </c>
@@ -2739,726 +2682,2430 @@
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
     </row>
-    <row r="43" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
+    <row r="43" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6</v>
+      </c>
+      <c r="G43" s="1">
+        <v>12</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="N43" s="9">
+        <v>26.8</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
+      <c r="S43" s="6">
+        <v>-1.6999999999999993</v>
+      </c>
       <c r="T43" s="6"/>
     </row>
-    <row r="44" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="L44" s="12"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="6"/>
+    <row r="44" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1">
+        <v>12</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="N44" s="9">
+        <v>20.2</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
+      <c r="S44" s="6">
+        <v>-3.4000000000000021</v>
+      </c>
       <c r="T44" s="6"/>
     </row>
-    <row r="45" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="6"/>
+    <row r="45" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1">
+        <v>12</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="9">
+        <v>28.4</v>
+      </c>
+      <c r="N45" s="9">
+        <v>25</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
+      <c r="S45" s="6">
+        <v>-3.3999999999999986</v>
+      </c>
       <c r="T45" s="6"/>
     </row>
-    <row r="46" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="6"/>
+    <row r="46" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>12</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="N46" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
+      <c r="S46" s="6">
+        <v>-4.8000000000000007</v>
+      </c>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="1">
+        <v>6</v>
+      </c>
+      <c r="G47" s="1">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="6"/>
+      <c r="K47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="9">
+        <v>28.3</v>
+      </c>
+      <c r="N47" s="9">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
+      <c r="S47" s="6">
+        <v>-8.3000000000000007</v>
+      </c>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="L48" s="12"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="6"/>
+    <row r="48" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1">
+        <v>12</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M48" s="9">
+        <v>23.1</v>
+      </c>
+      <c r="N48" s="9">
+        <v>17.8</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
+      <c r="S48" s="6">
+        <v>-5.3000000000000007</v>
+      </c>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="L49" s="12"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
+    <row r="49" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="28">
+        <v>51</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M49" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="N49" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
+      <c r="R49" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="S49" s="6">
+        <v>0</v>
+      </c>
       <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
+      <c r="U49" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="28">
+        <v>51</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="N50" s="9">
+        <v>13</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
+      <c r="R50" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="S50" s="6">
+        <v>-1.1999999999999993</v>
+      </c>
       <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="L51" s="12"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
+      <c r="U50" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="28">
+        <v>51</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="N51" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
+      <c r="R51" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="S51" s="6">
+        <v>1.3999999999999986</v>
+      </c>
       <c r="T51" s="6"/>
-    </row>
-    <row r="52" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="U51" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="28">
+        <v>51</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L52" s="12"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
+      <c r="I52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="N52" s="9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
+      <c r="R52" s="6">
+        <v>1</v>
+      </c>
+      <c r="S52" s="6">
+        <v>1.0999999999999979</v>
+      </c>
       <c r="T52" s="6"/>
-    </row>
-    <row r="53" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="L53" s="12"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
+      <c r="U52" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="28">
+        <v>51</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M53" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="N53" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
+      <c r="R53" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S53" s="6">
+        <v>1.3000000000000007</v>
+      </c>
       <c r="T53" s="6"/>
-    </row>
-    <row r="54" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="L54" s="12"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
+      <c r="U53" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="28">
+        <v>51</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="N54" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
+      <c r="R54" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="S54" s="6">
+        <v>-2.3000000000000007</v>
+      </c>
       <c r="T54" s="6"/>
-    </row>
-    <row r="55" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="L55" s="12"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
+      <c r="U54" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="28">
+        <v>51</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M55" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="N55" s="9">
+        <v>18.2</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
+      <c r="R55" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="S55" s="6">
+        <v>-1.3000000000000007</v>
+      </c>
       <c r="T55" s="6"/>
-    </row>
-    <row r="56" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="L56" s="12"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
+      <c r="U55" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="28">
+        <v>51</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M56" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N56" s="9">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
+      <c r="R56" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="S56" s="6">
+        <v>-2</v>
+      </c>
       <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="L57" s="12"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
+      <c r="U56" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="28">
+        <v>51</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M57" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="N57" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
+      <c r="R57" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="S57" s="6">
+        <v>-4</v>
+      </c>
       <c r="T57" s="6"/>
-    </row>
-    <row r="58" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="L58" s="12"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
+      <c r="U57" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="28">
+        <v>51</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M58" s="9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N58" s="9">
+        <v>17.7</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
+      <c r="R58" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="S58" s="6">
+        <v>-0.90000000000000213</v>
+      </c>
       <c r="T58" s="6"/>
-    </row>
-    <row r="59" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="L59" s="12"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
+      <c r="U58" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="28">
+        <v>51</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M59" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="N59" s="9">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
+      <c r="R59" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="S59" s="6">
+        <v>-2.5999999999999979</v>
+      </c>
       <c r="T59" s="6"/>
-    </row>
-    <row r="60" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="L60" s="12"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
+      <c r="U59" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="28">
+        <v>51</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M60" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="N60" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
+      <c r="R60" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="S60" s="6">
+        <v>-1.3999999999999986</v>
+      </c>
       <c r="T60" s="6"/>
-    </row>
-    <row r="61" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="L61" s="12"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
+      <c r="U60" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="28">
+        <v>51</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M61" s="9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N61" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
+      <c r="R61" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="S61" s="6">
+        <v>9.9999999999997868E-2</v>
+      </c>
       <c r="T61" s="6"/>
-    </row>
-    <row r="62" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="L62" s="12"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
+      <c r="U61" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="28">
+        <v>51</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M62" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="N62" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
+      <c r="R62" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="S62" s="6">
+        <v>-1.5</v>
+      </c>
       <c r="T62" s="6"/>
-    </row>
-    <row r="63" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="L63" s="12"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
+      <c r="U62" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="28">
+        <v>51</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="N63" s="9">
+        <v>14.3</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
+      <c r="R63" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="S63" s="6">
+        <v>-1.8999999999999986</v>
+      </c>
       <c r="T63" s="6"/>
-    </row>
-    <row r="64" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="L64" s="12"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
+      <c r="U63" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="28">
+        <v>51</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M64" s="9">
+        <v>22.9</v>
+      </c>
+      <c r="N64" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
+      <c r="R64" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S64" s="6">
+        <v>-4.7999999999999972</v>
+      </c>
       <c r="T64" s="6"/>
-    </row>
-    <row r="65" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="L65" s="12"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
+      <c r="U64" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="28">
+        <v>51</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M65" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="N65" s="9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
+      <c r="R65" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="S65" s="6">
+        <v>-4</v>
+      </c>
       <c r="T65" s="6"/>
-    </row>
-    <row r="66" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="L66" s="12"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
+      <c r="U65" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="28">
+        <v>51</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M66" s="9">
+        <v>15.2</v>
+      </c>
+      <c r="N66" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
+      <c r="R66" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="S66" s="6">
+        <v>-3.6999999999999993</v>
+      </c>
       <c r="T66" s="6"/>
-    </row>
-    <row r="67" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="L67" s="12"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
+      <c r="U66" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="28">
+        <v>51</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M67" s="9">
+        <v>20.7</v>
+      </c>
+      <c r="N67" s="9">
+        <v>21</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
+      <c r="R67" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="S67" s="6">
+        <v>0.30000000000000071</v>
+      </c>
       <c r="T67" s="6"/>
-    </row>
-    <row r="68" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="L68" s="12"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
+      <c r="U67" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="28">
+        <v>51</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M68" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N68" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
+      <c r="R68" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="S68" s="6">
+        <v>-1.0999999999999979</v>
+      </c>
       <c r="T68" s="6"/>
-    </row>
-    <row r="69" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="U68" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="28">
+        <v>51</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="N69" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S69" s="6">
+        <v>-4.7000000000000011</v>
+      </c>
+      <c r="T69" s="6"/>
+      <c r="U69" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="28">
+        <v>51</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M70" s="9">
+        <v>20.7</v>
+      </c>
+      <c r="N70" s="9">
+        <v>21.2</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="S70" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="T70" s="6"/>
+      <c r="U70" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="28">
+        <v>51</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L71" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L69" s="12"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-    </row>
-    <row r="70" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="L70" s="12"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-    </row>
-    <row r="71" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="L71" s="12"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
+      <c r="M71" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N71" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
+      <c r="R71" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="S71" s="6">
+        <v>0.40000000000000213</v>
+      </c>
       <c r="T71" s="6"/>
-    </row>
-    <row r="72" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="L72" s="12"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
+      <c r="U71" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="28">
+        <v>51</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M72" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="N72" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
+      <c r="R72" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="S72" s="6">
+        <v>-2.2000000000000011</v>
+      </c>
       <c r="T72" s="6"/>
-    </row>
-    <row r="73" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="L73" s="12"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
+      <c r="U72" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="28">
+        <v>51</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M73" s="9">
+        <v>27.7</v>
+      </c>
+      <c r="N73" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
+      <c r="R73" s="6">
+        <v>2</v>
+      </c>
+      <c r="S73" s="6">
+        <v>-3.3000000000000007</v>
+      </c>
       <c r="T73" s="6"/>
-    </row>
-    <row r="74" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="U73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L74" s="12"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
+      <c r="C74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="28">
+        <v>51</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M74" s="9">
+        <v>25</v>
+      </c>
+      <c r="N74" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
+      <c r="R74" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="S74" s="6">
+        <v>-4.5</v>
+      </c>
       <c r="T74" s="6"/>
-    </row>
-    <row r="75" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="U74" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L75" s="12"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="28">
+        <v>51</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M75" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N75" s="9">
+        <v>13</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
+      <c r="R75" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="S75" s="6">
+        <v>-5.8999999999999986</v>
+      </c>
       <c r="T75" s="6"/>
-    </row>
-    <row r="76" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="U75" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="28">
+        <v>51</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L76" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L76" s="12"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="6"/>
+      <c r="M76" s="9">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="N76" s="9">
+        <v>34</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
+      <c r="S76" s="6">
+        <f>N76-M76</f>
+        <v>-0.70000000000000284</v>
+      </c>
       <c r="T76" s="6"/>
-    </row>
-    <row r="77" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="L77" s="12"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="6"/>
+      <c r="U76" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="28">
+        <v>51</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M77" s="9">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="N77" s="9">
+        <v>36.9</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
+      <c r="S77" s="6">
+        <f t="shared" ref="S77:S93" si="0">N77-M77</f>
+        <v>2.1999999999999957</v>
+      </c>
       <c r="T77" s="6"/>
-    </row>
-    <row r="78" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="U77" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="28">
+        <v>51</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L78" s="12"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="6"/>
+      <c r="L78" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M78" s="9">
+        <v>42</v>
+      </c>
+      <c r="N78" s="9">
+        <v>41.7</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
+      <c r="S78" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999716</v>
+      </c>
       <c r="T78" s="6"/>
-    </row>
-    <row r="79" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="U78" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="28">
+        <v>51</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L79" s="12"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="6"/>
+      <c r="I79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L79" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M79" s="9">
+        <v>40.5</v>
+      </c>
+      <c r="N79" s="9">
+        <v>40.4</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
+      <c r="S79" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
       <c r="T79" s="6"/>
-    </row>
-    <row r="80" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="L80" s="12"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="6"/>
+      <c r="U79" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="28">
+        <v>51</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M80" s="9">
+        <v>40.5</v>
+      </c>
+      <c r="N80" s="9">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
+      <c r="S80" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999716</v>
+      </c>
       <c r="T80" s="6"/>
-    </row>
-    <row r="81" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="L81" s="12"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="6"/>
+      <c r="U80" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="28">
+        <v>51</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M81" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="N81" s="9">
+        <v>40.1</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
+      <c r="S81" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.1999999999999957</v>
+      </c>
       <c r="T81" s="6"/>
-    </row>
-    <row r="82" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="L82" s="12"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="6"/>
+      <c r="U81" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="28">
+        <v>51</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M82" s="9">
+        <v>43.9</v>
+      </c>
+      <c r="N82" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
+      <c r="S82" s="6">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000142</v>
+      </c>
       <c r="T82" s="6"/>
-    </row>
-    <row r="83" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="L83" s="12"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="6"/>
+      <c r="U82" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="28">
+        <v>51</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M83" s="9">
+        <v>43.9</v>
+      </c>
+      <c r="N83" s="9">
+        <v>44.9</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
+      <c r="S83" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="T83" s="6"/>
-    </row>
-    <row r="84" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="L84" s="12"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="6"/>
+      <c r="U83" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="28">
+        <v>51</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M84" s="9">
+        <v>53.7</v>
+      </c>
+      <c r="N84" s="9">
+        <v>50.3</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
+      <c r="S84" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.4000000000000057</v>
+      </c>
       <c r="T84" s="6"/>
-    </row>
-    <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="L85" s="12"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="6"/>
+      <c r="U84" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="28">
+        <v>51</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M85" s="9">
+        <v>94.3</v>
+      </c>
+      <c r="N85" s="9">
+        <v>98</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
+      <c r="S85" s="6">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000028</v>
+      </c>
       <c r="T85" s="6"/>
-    </row>
-    <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="L86" s="12"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="6"/>
+      <c r="U85" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="28">
+        <v>51</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L86" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M86" s="9">
+        <v>94.3</v>
+      </c>
+      <c r="N86" s="9">
+        <v>94</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
+      <c r="S86" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999716</v>
+      </c>
       <c r="T86" s="6"/>
-    </row>
-    <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="L87" s="12"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="6"/>
+      <c r="U86" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="28">
+        <v>51</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M87" s="9">
+        <v>119.6</v>
+      </c>
+      <c r="N87" s="9">
+        <v>108.9</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
+      <c r="S87" s="6">
+        <f t="shared" si="0"/>
+        <v>-10.699999999999989</v>
+      </c>
       <c r="T87" s="6"/>
-    </row>
-    <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="L88" s="12"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="6"/>
+      <c r="U87" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="28">
+        <v>51</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M88" s="9">
+        <v>117.5</v>
+      </c>
+      <c r="N88" s="9">
+        <v>111.9</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
+      <c r="S88" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.5999999999999943</v>
+      </c>
       <c r="T88" s="6"/>
-    </row>
-    <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="L89" s="12"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="6"/>
+      <c r="U88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="28">
+        <v>51</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L89" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M89" s="9">
+        <v>117.5</v>
+      </c>
+      <c r="N89" s="9">
+        <v>112.3</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
+      <c r="S89" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.2000000000000028</v>
+      </c>
       <c r="T89" s="6"/>
-    </row>
-    <row r="90" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="L90" s="12"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="6"/>
+      <c r="U89" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="28">
+        <v>51</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M90" s="9">
+        <v>124.6</v>
+      </c>
+      <c r="N90" s="9">
+        <v>102.7</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
+      <c r="S90" s="6">
+        <f t="shared" si="0"/>
+        <v>-21.899999999999991</v>
+      </c>
       <c r="T90" s="6"/>
-    </row>
-    <row r="91" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="L91" s="12"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="6"/>
+      <c r="U90" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="28">
+        <v>51</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M91" s="9">
+        <v>121.2</v>
+      </c>
+      <c r="N91" s="9">
+        <v>109.8</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
+      <c r="S91" s="6">
+        <f t="shared" si="0"/>
+        <v>-11.400000000000006</v>
+      </c>
       <c r="T91" s="6"/>
-    </row>
-    <row r="92" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="L92" s="12"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="6"/>
+      <c r="U91" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="28">
+        <v>51</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L92" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M92" s="9">
+        <v>121.2</v>
+      </c>
+      <c r="N92" s="9">
+        <v>116.4</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
+      <c r="S92" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.7999999999999972</v>
+      </c>
       <c r="T92" s="6"/>
-    </row>
-    <row r="93" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="L93" s="12"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="6"/>
+      <c r="U92" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="28">
+        <v>51</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L93" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M93" s="9">
+        <v>145</v>
+      </c>
+      <c r="N93" s="9">
+        <v>121.8</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
+      <c r="S93" s="6">
+        <f t="shared" si="0"/>
+        <v>-23.200000000000003</v>
+      </c>
       <c r="T93" s="6"/>
-    </row>
-    <row r="94" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="U93" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="L94" s="12"/>
       <c r="M94" s="9"/>
@@ -3470,9 +5117,9 @@
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
     </row>
-    <row r="95" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>93</v>
+    <row r="95" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="L95" s="12"/>
       <c r="M95" s="9"/>
@@ -3484,9 +5131,9 @@
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
     </row>
-    <row r="96" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>94</v>
+    <row r="96" spans="2:21" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L96" s="12"/>
       <c r="M96" s="9"/>
@@ -3498,9 +5145,9 @@
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
     </row>
-    <row r="97" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>95</v>
+    <row r="97" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="L97" s="12"/>
       <c r="M97" s="9"/>
@@ -3512,9 +5159,9 @@
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
     </row>
-    <row r="98" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>96</v>
+    <row r="98" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="L98" s="12"/>
       <c r="M98" s="9"/>
@@ -3526,9 +5173,9 @@
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
     </row>
-    <row r="99" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>97</v>
+    <row r="99" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="L99" s="12"/>
       <c r="M99" s="9"/>
@@ -3540,9 +5187,9 @@
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
     </row>
-    <row r="100" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>98</v>
+    <row r="100" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B100" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="L100" s="12"/>
       <c r="M100" s="9"/>
@@ -3554,9 +5201,9 @@
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
     </row>
-    <row r="101" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>99</v>
+    <row r="101" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L101" s="12"/>
       <c r="M101" s="9"/>
@@ -3568,9 +5215,9 @@
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
     </row>
-    <row r="102" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>100</v>
+    <row r="102" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="L102" s="12"/>
       <c r="M102" s="9"/>
@@ -3582,9 +5229,9 @@
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
     </row>
-    <row r="103" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>101</v>
+    <row r="103" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="L103" s="12"/>
       <c r="M103" s="9"/>
@@ -3596,10 +5243,7 @@
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
     </row>
-    <row r="104" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
+    <row r="104" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L104" s="12"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
@@ -3610,10 +5254,7 @@
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
     </row>
-    <row r="105" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
+    <row r="105" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L105" s="12"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
@@ -3624,10 +5265,7 @@
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
     </row>
-    <row r="106" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
+    <row r="106" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L106" s="12"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
@@ -3638,10 +5276,7 @@
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
     </row>
-    <row r="107" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
+    <row r="107" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L107" s="12"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
@@ -3652,10 +5287,7 @@
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
     </row>
-    <row r="108" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
+    <row r="108" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L108" s="12"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
@@ -3666,10 +5298,7 @@
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
     </row>
-    <row r="109" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
+    <row r="109" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L109" s="12"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
@@ -3680,10 +5309,7 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
     </row>
-    <row r="110" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
+    <row r="110" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L110" s="12"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
@@ -3694,10 +5320,7 @@
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
     </row>
-    <row r="111" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
+    <row r="111" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L111" s="12"/>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
@@ -3708,10 +5331,7 @@
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
     </row>
-    <row r="112" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
+    <row r="112" spans="2:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L112" s="12"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
@@ -3722,10 +5342,7 @@
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
     </row>
-    <row r="113" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
+    <row r="113" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L113" s="12"/>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
@@ -3736,10 +5353,7 @@
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
     </row>
-    <row r="114" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
+    <row r="114" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L114" s="12"/>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
@@ -3750,10 +5364,7 @@
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
     </row>
-    <row r="115" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
+    <row r="115" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L115" s="12"/>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
@@ -3764,10 +5375,7 @@
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>
     </row>
-    <row r="116" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
+    <row r="116" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L116" s="12"/>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
@@ -3778,10 +5386,7 @@
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
     </row>
-    <row r="117" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
+    <row r="117" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L117" s="12"/>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
@@ -3792,10 +5397,7 @@
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
     </row>
-    <row r="118" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
+    <row r="118" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L118" s="12"/>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
@@ -3806,10 +5408,7 @@
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
     </row>
-    <row r="119" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
+    <row r="119" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L119" s="12"/>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
@@ -3820,10 +5419,7 @@
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
     </row>
-    <row r="120" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
+    <row r="120" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L120" s="12"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
@@ -3834,10 +5430,7 @@
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
     </row>
-    <row r="121" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
+    <row r="121" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L121" s="12"/>
       <c r="M121" s="9"/>
       <c r="N121" s="9"/>
@@ -3848,10 +5441,7 @@
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
     </row>
-    <row r="122" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
+    <row r="122" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L122" s="12"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
@@ -3862,10 +5452,7 @@
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
     </row>
-    <row r="123" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
+    <row r="123" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L123" s="12"/>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
@@ -3876,10 +5463,7 @@
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
     </row>
-    <row r="124" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
+    <row r="124" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L124" s="12"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
@@ -3890,10 +5474,7 @@
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
     </row>
-    <row r="125" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
+    <row r="125" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L125" s="12"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
@@ -3904,10 +5485,7 @@
       <c r="S125" s="6"/>
       <c r="T125" s="6"/>
     </row>
-    <row r="126" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
+    <row r="126" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L126" s="12"/>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
@@ -3918,10 +5496,7 @@
       <c r="S126" s="6"/>
       <c r="T126" s="6"/>
     </row>
-    <row r="127" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
+    <row r="127" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L127" s="12"/>
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
@@ -3932,10 +5507,7 @@
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
     </row>
-    <row r="128" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
+    <row r="128" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L128" s="12"/>
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
@@ -3946,10 +5518,7 @@
       <c r="S128" s="6"/>
       <c r="T128" s="6"/>
     </row>
-    <row r="129" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
+    <row r="129" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L129" s="12"/>
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
@@ -3960,10 +5529,7 @@
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
     </row>
-    <row r="130" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
+    <row r="130" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L130" s="12"/>
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
@@ -3974,10 +5540,7 @@
       <c r="S130" s="6"/>
       <c r="T130" s="6"/>
     </row>
-    <row r="131" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
+    <row r="131" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L131" s="12"/>
       <c r="M131" s="9"/>
       <c r="N131" s="9"/>
@@ -3988,10 +5551,7 @@
       <c r="S131" s="6"/>
       <c r="T131" s="6"/>
     </row>
-    <row r="132" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
+    <row r="132" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L132" s="12"/>
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
@@ -4002,10 +5562,7 @@
       <c r="S132" s="6"/>
       <c r="T132" s="6"/>
     </row>
-    <row r="133" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
+    <row r="133" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L133" s="12"/>
       <c r="M133" s="9"/>
       <c r="N133" s="9"/>
@@ -4016,10 +5573,7 @@
       <c r="S133" s="6"/>
       <c r="T133" s="6"/>
     </row>
-    <row r="134" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
+    <row r="134" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L134" s="12"/>
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
@@ -4030,10 +5584,7 @@
       <c r="S134" s="6"/>
       <c r="T134" s="6"/>
     </row>
-    <row r="135" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
+    <row r="135" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L135" s="12"/>
       <c r="M135" s="9"/>
       <c r="N135" s="9"/>
@@ -4044,10 +5595,7 @@
       <c r="S135" s="6"/>
       <c r="T135" s="6"/>
     </row>
-    <row r="136" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
+    <row r="136" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L136" s="12"/>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
@@ -4058,10 +5606,7 @@
       <c r="S136" s="6"/>
       <c r="T136" s="6"/>
     </row>
-    <row r="137" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
+    <row r="137" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L137" s="12"/>
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
@@ -4072,10 +5617,7 @@
       <c r="S137" s="6"/>
       <c r="T137" s="6"/>
     </row>
-    <row r="138" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
+    <row r="138" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L138" s="12"/>
       <c r="M138" s="9"/>
       <c r="N138" s="9"/>
@@ -4086,10 +5628,7 @@
       <c r="S138" s="6"/>
       <c r="T138" s="6"/>
     </row>
-    <row r="139" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
+    <row r="139" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L139" s="12"/>
       <c r="M139" s="9"/>
       <c r="N139" s="9"/>
@@ -4100,10 +5639,7 @@
       <c r="S139" s="6"/>
       <c r="T139" s="6"/>
     </row>
-    <row r="140" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
+    <row r="140" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L140" s="12"/>
       <c r="M140" s="9"/>
       <c r="N140" s="9"/>
@@ -4114,10 +5650,7 @@
       <c r="S140" s="6"/>
       <c r="T140" s="6"/>
     </row>
-    <row r="141" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
+    <row r="141" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L141" s="12"/>
       <c r="M141" s="9"/>
       <c r="N141" s="9"/>
@@ -4128,10 +5661,7 @@
       <c r="S141" s="6"/>
       <c r="T141" s="6"/>
     </row>
-    <row r="142" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
+    <row r="142" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L142" s="12"/>
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
@@ -4142,10 +5672,7 @@
       <c r="S142" s="6"/>
       <c r="T142" s="6"/>
     </row>
-    <row r="143" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
+    <row r="143" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L143" s="12"/>
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
@@ -4156,10 +5683,7 @@
       <c r="S143" s="6"/>
       <c r="T143" s="6"/>
     </row>
-    <row r="144" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
+    <row r="144" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L144" s="12"/>
       <c r="M144" s="9"/>
       <c r="N144" s="9"/>
@@ -4170,10 +5694,7 @@
       <c r="S144" s="6"/>
       <c r="T144" s="6"/>
     </row>
-    <row r="145" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
+    <row r="145" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L145" s="12"/>
       <c r="M145" s="9"/>
       <c r="N145" s="9"/>
@@ -4184,10 +5705,7 @@
       <c r="S145" s="6"/>
       <c r="T145" s="6"/>
     </row>
-    <row r="146" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
+    <row r="146" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L146" s="12"/>
       <c r="M146" s="9"/>
       <c r="N146" s="9"/>
@@ -4198,10 +5716,7 @@
       <c r="S146" s="6"/>
       <c r="T146" s="6"/>
     </row>
-    <row r="147" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
+    <row r="147" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L147" s="12"/>
       <c r="M147" s="9"/>
       <c r="N147" s="9"/>
@@ -4212,10 +5727,7 @@
       <c r="S147" s="6"/>
       <c r="T147" s="6"/>
     </row>
-    <row r="148" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
+    <row r="148" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L148" s="12"/>
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
@@ -4226,10 +5738,7 @@
       <c r="S148" s="6"/>
       <c r="T148" s="6"/>
     </row>
-    <row r="149" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
+    <row r="149" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L149" s="12"/>
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
@@ -4240,10 +5749,7 @@
       <c r="S149" s="6"/>
       <c r="T149" s="6"/>
     </row>
-    <row r="150" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
+    <row r="150" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L150" s="12"/>
       <c r="M150" s="9"/>
       <c r="N150" s="9"/>
@@ -4254,10 +5760,7 @@
       <c r="S150" s="6"/>
       <c r="T150" s="6"/>
     </row>
-    <row r="151" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
+    <row r="151" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L151" s="12"/>
       <c r="M151" s="9"/>
       <c r="N151" s="9"/>
@@ -4268,10 +5771,7 @@
       <c r="S151" s="6"/>
       <c r="T151" s="6"/>
     </row>
-    <row r="152" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
+    <row r="152" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L152" s="12"/>
       <c r="M152" s="9"/>
       <c r="N152" s="9"/>
@@ -4282,10 +5782,7 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
     </row>
-    <row r="153" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
+    <row r="153" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L153" s="12"/>
       <c r="M153" s="9"/>
       <c r="N153" s="9"/>
@@ -4296,10 +5793,7 @@
       <c r="S153" s="6"/>
       <c r="T153" s="6"/>
     </row>
-    <row r="154" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
+    <row r="154" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L154" s="12"/>
       <c r="M154" s="9"/>
       <c r="N154" s="9"/>
@@ -4310,10 +5804,7 @@
       <c r="S154" s="6"/>
       <c r="T154" s="6"/>
     </row>
-    <row r="155" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
+    <row r="155" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L155" s="12"/>
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
@@ -4324,10 +5815,7 @@
       <c r="S155" s="6"/>
       <c r="T155" s="6"/>
     </row>
-    <row r="156" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
+    <row r="156" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L156" s="12"/>
       <c r="M156" s="9"/>
       <c r="N156" s="9"/>
@@ -4338,10 +5826,7 @@
       <c r="S156" s="6"/>
       <c r="T156" s="6"/>
     </row>
-    <row r="157" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
+    <row r="157" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L157" s="12"/>
       <c r="M157" s="9"/>
       <c r="N157" s="9"/>
@@ -4352,10 +5837,7 @@
       <c r="S157" s="6"/>
       <c r="T157" s="6"/>
     </row>
-    <row r="158" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
+    <row r="158" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L158" s="12"/>
       <c r="M158" s="9"/>
       <c r="N158" s="9"/>
@@ -4366,10 +5848,7 @@
       <c r="S158" s="6"/>
       <c r="T158" s="6"/>
     </row>
-    <row r="159" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
+    <row r="159" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L159" s="12"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9"/>
@@ -4380,10 +5859,7 @@
       <c r="S159" s="6"/>
       <c r="T159" s="6"/>
     </row>
-    <row r="160" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
+    <row r="160" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L160" s="12"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9"/>
@@ -4394,10 +5870,7 @@
       <c r="S160" s="6"/>
       <c r="T160" s="6"/>
     </row>
-    <row r="161" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
+    <row r="161" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L161" s="12"/>
       <c r="M161" s="9"/>
       <c r="N161" s="9"/>
@@ -4408,10 +5881,7 @@
       <c r="S161" s="6"/>
       <c r="T161" s="6"/>
     </row>
-    <row r="162" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
+    <row r="162" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L162" s="12"/>
       <c r="M162" s="9"/>
       <c r="N162" s="9"/>
@@ -4422,10 +5892,7 @@
       <c r="S162" s="6"/>
       <c r="T162" s="6"/>
     </row>
-    <row r="163" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
+    <row r="163" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L163" s="12"/>
       <c r="M163" s="9"/>
       <c r="N163" s="9"/>
@@ -4436,10 +5903,7 @@
       <c r="S163" s="6"/>
       <c r="T163" s="6"/>
     </row>
-    <row r="164" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
+    <row r="164" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L164" s="12"/>
       <c r="M164" s="9"/>
       <c r="N164" s="9"/>
@@ -4450,10 +5914,7 @@
       <c r="S164" s="6"/>
       <c r="T164" s="6"/>
     </row>
-    <row r="165" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
+    <row r="165" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L165" s="12"/>
       <c r="M165" s="9"/>
       <c r="N165" s="9"/>
@@ -4464,10 +5925,7 @@
       <c r="S165" s="6"/>
       <c r="T165" s="6"/>
     </row>
-    <row r="166" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
+    <row r="166" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L166" s="12"/>
       <c r="M166" s="9"/>
       <c r="N166" s="9"/>
@@ -4478,10 +5936,7 @@
       <c r="S166" s="6"/>
       <c r="T166" s="6"/>
     </row>
-    <row r="167" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
+    <row r="167" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L167" s="12"/>
       <c r="M167" s="9"/>
       <c r="N167" s="9"/>
@@ -4492,10 +5947,7 @@
       <c r="S167" s="6"/>
       <c r="T167" s="6"/>
     </row>
-    <row r="168" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
+    <row r="168" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L168" s="12"/>
       <c r="M168" s="9"/>
       <c r="N168" s="9"/>
@@ -4506,10 +5958,7 @@
       <c r="S168" s="6"/>
       <c r="T168" s="6"/>
     </row>
-    <row r="169" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
+    <row r="169" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L169" s="12"/>
       <c r="M169" s="9"/>
       <c r="N169" s="9"/>
@@ -4520,10 +5969,7 @@
       <c r="S169" s="6"/>
       <c r="T169" s="6"/>
     </row>
-    <row r="170" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
+    <row r="170" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L170" s="12"/>
       <c r="M170" s="9"/>
       <c r="N170" s="9"/>
@@ -4534,10 +5980,7 @@
       <c r="S170" s="6"/>
       <c r="T170" s="6"/>
     </row>
-    <row r="171" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
+    <row r="171" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L171" s="12"/>
       <c r="M171" s="9"/>
       <c r="N171" s="9"/>
@@ -4548,10 +5991,7 @@
       <c r="S171" s="6"/>
       <c r="T171" s="6"/>
     </row>
-    <row r="172" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
+    <row r="172" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L172" s="12"/>
       <c r="M172" s="9"/>
       <c r="N172" s="9"/>
@@ -4562,10 +6002,7 @@
       <c r="S172" s="6"/>
       <c r="T172" s="6"/>
     </row>
-    <row r="173" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
+    <row r="173" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L173" s="12"/>
       <c r="M173" s="9"/>
       <c r="N173" s="9"/>
@@ -4576,10 +6013,7 @@
       <c r="S173" s="6"/>
       <c r="T173" s="6"/>
     </row>
-    <row r="174" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
+    <row r="174" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L174" s="12"/>
       <c r="M174" s="9"/>
       <c r="N174" s="9"/>
@@ -4590,10 +6024,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
     </row>
-    <row r="175" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
+    <row r="175" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L175" s="12"/>
       <c r="M175" s="9"/>
       <c r="N175" s="9"/>
@@ -4604,10 +6035,7 @@
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
     </row>
-    <row r="176" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
+    <row r="176" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L176" s="12"/>
       <c r="M176" s="9"/>
       <c r="N176" s="9"/>
@@ -4618,10 +6046,7 @@
       <c r="S176" s="6"/>
       <c r="T176" s="6"/>
     </row>
-    <row r="177" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
+    <row r="177" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L177" s="12"/>
       <c r="M177" s="9"/>
       <c r="N177" s="9"/>
@@ -4632,10 +6057,7 @@
       <c r="S177" s="6"/>
       <c r="T177" s="6"/>
     </row>
-    <row r="178" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
+    <row r="178" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L178" s="12"/>
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
@@ -4646,10 +6068,7 @@
       <c r="S178" s="6"/>
       <c r="T178" s="6"/>
     </row>
-    <row r="179" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
+    <row r="179" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L179" s="12"/>
       <c r="M179" s="9"/>
       <c r="N179" s="9"/>
@@ -4660,10 +6079,7 @@
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
     </row>
-    <row r="180" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
+    <row r="180" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L180" s="12"/>
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
@@ -4674,10 +6090,7 @@
       <c r="S180" s="6"/>
       <c r="T180" s="6"/>
     </row>
-    <row r="181" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
+    <row r="181" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L181" s="12"/>
       <c r="M181" s="9"/>
       <c r="N181" s="9"/>
@@ -4688,10 +6101,7 @@
       <c r="S181" s="6"/>
       <c r="T181" s="6"/>
     </row>
-    <row r="182" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
+    <row r="182" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L182" s="12"/>
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
@@ -4702,10 +6112,7 @@
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
     </row>
-    <row r="183" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
+    <row r="183" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L183" s="12"/>
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
@@ -4716,10 +6123,7 @@
       <c r="S183" s="6"/>
       <c r="T183" s="6"/>
     </row>
-    <row r="184" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
+    <row r="184" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L184" s="12"/>
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
@@ -4730,10 +6134,7 @@
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
     </row>
-    <row r="185" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
+    <row r="185" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L185" s="12"/>
       <c r="M185" s="9"/>
       <c r="N185" s="9"/>
@@ -4744,10 +6145,7 @@
       <c r="S185" s="6"/>
       <c r="T185" s="6"/>
     </row>
-    <row r="186" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
+    <row r="186" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L186" s="12"/>
       <c r="M186" s="9"/>
       <c r="N186" s="9"/>
@@ -4758,10 +6156,7 @@
       <c r="S186" s="6"/>
       <c r="T186" s="6"/>
     </row>
-    <row r="187" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
+    <row r="187" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L187" s="12"/>
       <c r="M187" s="9"/>
       <c r="N187" s="9"/>
@@ -4772,10 +6167,7 @@
       <c r="S187" s="6"/>
       <c r="T187" s="6"/>
     </row>
-    <row r="188" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
+    <row r="188" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L188" s="12"/>
       <c r="M188" s="9"/>
       <c r="N188" s="9"/>
@@ -4786,10 +6178,7 @@
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
     </row>
-    <row r="189" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
+    <row r="189" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L189" s="12"/>
       <c r="M189" s="9"/>
       <c r="N189" s="9"/>
@@ -4800,10 +6189,7 @@
       <c r="S189" s="6"/>
       <c r="T189" s="6"/>
     </row>
-    <row r="190" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
+    <row r="190" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L190" s="12"/>
       <c r="M190" s="9"/>
       <c r="N190" s="9"/>
@@ -4814,10 +6200,7 @@
       <c r="S190" s="6"/>
       <c r="T190" s="6"/>
     </row>
-    <row r="191" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
+    <row r="191" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L191" s="12"/>
       <c r="M191" s="9"/>
       <c r="N191" s="9"/>
@@ -4828,10 +6211,7 @@
       <c r="S191" s="6"/>
       <c r="T191" s="6"/>
     </row>
-    <row r="192" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
+    <row r="192" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L192" s="12"/>
       <c r="M192" s="9"/>
       <c r="N192" s="9"/>
@@ -4842,10 +6222,7 @@
       <c r="S192" s="6"/>
       <c r="T192" s="6"/>
     </row>
-    <row r="193" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
+    <row r="193" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L193" s="12"/>
       <c r="M193" s="9"/>
       <c r="N193" s="9"/>
@@ -4856,10 +6233,7 @@
       <c r="S193" s="6"/>
       <c r="T193" s="6"/>
     </row>
-    <row r="194" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
+    <row r="194" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L194" s="12"/>
       <c r="M194" s="9"/>
       <c r="N194" s="9"/>
@@ -4870,10 +6244,7 @@
       <c r="S194" s="6"/>
       <c r="T194" s="6"/>
     </row>
-    <row r="195" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
+    <row r="195" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L195" s="12"/>
       <c r="M195" s="9"/>
       <c r="N195" s="9"/>
@@ -4884,10 +6255,7 @@
       <c r="S195" s="6"/>
       <c r="T195" s="6"/>
     </row>
-    <row r="196" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
+    <row r="196" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L196" s="12"/>
       <c r="M196" s="9"/>
       <c r="N196" s="9"/>
@@ -4898,10 +6266,7 @@
       <c r="S196" s="6"/>
       <c r="T196" s="6"/>
     </row>
-    <row r="197" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
+    <row r="197" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L197" s="12"/>
       <c r="M197" s="9"/>
       <c r="N197" s="9"/>
@@ -4912,10 +6277,7 @@
       <c r="S197" s="6"/>
       <c r="T197" s="6"/>
     </row>
-    <row r="198" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
+    <row r="198" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L198" s="12"/>
       <c r="M198" s="9"/>
       <c r="N198" s="9"/>
@@ -4926,10 +6288,7 @@
       <c r="S198" s="6"/>
       <c r="T198" s="6"/>
     </row>
-    <row r="199" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
+    <row r="199" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L199" s="12"/>
       <c r="M199" s="9"/>
       <c r="N199" s="9"/>
@@ -4940,10 +6299,7 @@
       <c r="S199" s="6"/>
       <c r="T199" s="6"/>
     </row>
-    <row r="200" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
+    <row r="200" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L200" s="12"/>
       <c r="M200" s="9"/>
       <c r="N200" s="9"/>
@@ -4954,10 +6310,7 @@
       <c r="S200" s="6"/>
       <c r="T200" s="6"/>
     </row>
-    <row r="201" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
+    <row r="201" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L201" s="12"/>
       <c r="M201" s="9"/>
       <c r="N201" s="9"/>
@@ -4968,10 +6321,7 @@
       <c r="S201" s="6"/>
       <c r="T201" s="6"/>
     </row>
-    <row r="202" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
+    <row r="202" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L202" s="12"/>
       <c r="M202" s="9"/>
       <c r="N202" s="9"/>
@@ -4982,10 +6332,7 @@
       <c r="S202" s="6"/>
       <c r="T202" s="6"/>
     </row>
-    <row r="203" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
+    <row r="203" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L203" s="12"/>
       <c r="M203" s="9"/>
       <c r="N203" s="9"/>
@@ -4996,10 +6343,7 @@
       <c r="S203" s="6"/>
       <c r="T203" s="6"/>
     </row>
-    <row r="204" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
+    <row r="204" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L204" s="12"/>
       <c r="M204" s="9"/>
       <c r="N204" s="9"/>
@@ -5010,10 +6354,7 @@
       <c r="S204" s="6"/>
       <c r="T204" s="6"/>
     </row>
-    <row r="205" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
+    <row r="205" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L205" s="12"/>
       <c r="M205" s="9"/>
       <c r="N205" s="9"/>
@@ -5024,10 +6365,7 @@
       <c r="S205" s="6"/>
       <c r="T205" s="6"/>
     </row>
-    <row r="206" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
+    <row r="206" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L206" s="12"/>
       <c r="M206" s="9"/>
       <c r="N206" s="9"/>
@@ -5038,10 +6376,7 @@
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
     </row>
-    <row r="207" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
+    <row r="207" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L207" s="12"/>
       <c r="M207" s="9"/>
       <c r="N207" s="9"/>
@@ -5052,10 +6387,7 @@
       <c r="S207" s="6"/>
       <c r="T207" s="6"/>
     </row>
-    <row r="208" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
+    <row r="208" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L208" s="12"/>
       <c r="M208" s="9"/>
       <c r="N208" s="9"/>
@@ -5066,10 +6398,7 @@
       <c r="S208" s="6"/>
       <c r="T208" s="6"/>
     </row>
-    <row r="209" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
+    <row r="209" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L209" s="12"/>
       <c r="M209" s="9"/>
       <c r="N209" s="9"/>
@@ -5080,10 +6409,7 @@
       <c r="S209" s="6"/>
       <c r="T209" s="6"/>
     </row>
-    <row r="210" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
+    <row r="210" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L210" s="12"/>
       <c r="M210" s="9"/>
       <c r="N210" s="9"/>
@@ -5094,10 +6420,7 @@
       <c r="S210" s="6"/>
       <c r="T210" s="6"/>
     </row>
-    <row r="211" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
+    <row r="211" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L211" s="12"/>
       <c r="M211" s="9"/>
       <c r="N211" s="9"/>
@@ -5108,10 +6431,7 @@
       <c r="S211" s="6"/>
       <c r="T211" s="6"/>
     </row>
-    <row r="212" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
+    <row r="212" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L212" s="12"/>
       <c r="M212" s="9"/>
       <c r="N212" s="9"/>
@@ -5122,10 +6442,7 @@
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
     </row>
-    <row r="213" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
+    <row r="213" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L213" s="12"/>
       <c r="M213" s="9"/>
       <c r="N213" s="9"/>
@@ -5136,10 +6453,7 @@
       <c r="S213" s="6"/>
       <c r="T213" s="6"/>
     </row>
-    <row r="214" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
+    <row r="214" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L214" s="12"/>
       <c r="M214" s="9"/>
       <c r="N214" s="9"/>
@@ -5150,10 +6464,7 @@
       <c r="S214" s="6"/>
       <c r="T214" s="6"/>
     </row>
-    <row r="215" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
+    <row r="215" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L215" s="12"/>
       <c r="M215" s="9"/>
       <c r="N215" s="9"/>
@@ -5164,10 +6475,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
     </row>
-    <row r="216" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
+    <row r="216" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L216" s="12"/>
       <c r="M216" s="9"/>
       <c r="N216" s="9"/>
@@ -5178,10 +6486,7 @@
       <c r="S216" s="6"/>
       <c r="T216" s="6"/>
     </row>
-    <row r="217" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
+    <row r="217" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L217" s="12"/>
       <c r="M217" s="9"/>
       <c r="N217" s="9"/>
@@ -5192,10 +6497,7 @@
       <c r="S217" s="6"/>
       <c r="T217" s="6"/>
     </row>
-    <row r="218" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
+    <row r="218" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L218" s="12"/>
       <c r="M218" s="9"/>
       <c r="N218" s="9"/>
@@ -5206,10 +6508,7 @@
       <c r="S218" s="6"/>
       <c r="T218" s="6"/>
     </row>
-    <row r="219" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
+    <row r="219" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L219" s="12"/>
       <c r="M219" s="9"/>
       <c r="N219" s="9"/>
@@ -5220,10 +6519,7 @@
       <c r="S219" s="6"/>
       <c r="T219" s="6"/>
     </row>
-    <row r="220" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
+    <row r="220" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L220" s="12"/>
       <c r="M220" s="9"/>
       <c r="N220" s="9"/>
@@ -5234,10 +6530,7 @@
       <c r="S220" s="6"/>
       <c r="T220" s="6"/>
     </row>
-    <row r="221" spans="1:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
+    <row r="221" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L221" s="12"/>
       <c r="M221" s="9"/>
       <c r="N221" s="9"/>
@@ -5248,34 +6541,93 @@
       <c r="S221" s="6"/>
       <c r="T221" s="6"/>
     </row>
-    <row r="222" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
-      <c r="E222"/>
-      <c r="F222"/>
-      <c r="G222"/>
-      <c r="H222"/>
-      <c r="I222"/>
-      <c r="J222"/>
-      <c r="K222"/>
-      <c r="L222" s="14"/>
-      <c r="M222" s="16"/>
-      <c r="N222" s="16"/>
-      <c r="O222" s="7"/>
-      <c r="P222" s="7"/>
-      <c r="Q222" s="7"/>
-      <c r="R222" s="7"/>
-      <c r="S222" s="7"/>
-      <c r="T222" s="7"/>
-      <c r="U222"/>
-      <c r="V222"/>
+    <row r="222" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L222" s="12"/>
+      <c r="M222" s="9"/>
+      <c r="N222" s="9"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
+      <c r="S222" s="6"/>
+      <c r="T222" s="6"/>
+    </row>
+    <row r="223" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L223" s="12"/>
+      <c r="M223" s="9"/>
+      <c r="N223" s="9"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="6"/>
+      <c r="T223" s="6"/>
+    </row>
+    <row r="224" spans="12:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L224" s="12"/>
+      <c r="M224" s="9"/>
+      <c r="N224" s="9"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="6"/>
+      <c r="T224" s="6"/>
+    </row>
+    <row r="225" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L225" s="12"/>
+      <c r="M225" s="9"/>
+      <c r="N225" s="9"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
+      <c r="T225" s="6"/>
+    </row>
+    <row r="226" spans="2:22" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L226" s="12"/>
+      <c r="M226" s="9"/>
+      <c r="N226" s="9"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="6"/>
+    </row>
+    <row r="227" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227"/>
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227"/>
+      <c r="G227"/>
+      <c r="H227"/>
+      <c r="I227"/>
+      <c r="J227"/>
+      <c r="K227"/>
+      <c r="L227" s="14"/>
+      <c r="M227" s="16"/>
+      <c r="N227" s="16"/>
+      <c r="O227" s="7"/>
+      <c r="P227" s="7"/>
+      <c r="Q227" s="7"/>
+      <c r="R227" s="7"/>
+      <c r="S227" s="7"/>
+      <c r="T227" s="7"/>
+      <c r="U227"/>
+      <c r="V227"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="I1:K1"/>
@@ -5283,12 +6635,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
